--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p10_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p10_data.xlsx
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>1</v>
